--- a/team_data/Kolkata_England/Kolkata_England.xlsx
+++ b/team_data/Kolkata_England/Kolkata_England.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT\1st Year\1st Trimester\CM1601 [PRO]  Programming Fundamentals\Course Work\team_data\Kolkata_England\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37165493-03AB-4150-AD61-77A08A7766F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B929F60B-55D0-4A92-9D21-E3CAC2222261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="14355" windowWidth="15375" windowHeight="11145" xr2:uid="{F446D49F-E4C0-4F49-9B85-B202A1771979}"/>
+    <workbookView xWindow="28680" yWindow="6810" windowWidth="20730" windowHeight="11310" xr2:uid="{F446D49F-E4C0-4F49-9B85-B202A1771979}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
-    <t>Player Name</t>
-  </si>
-  <si>
     <t>Runs</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>PLAYER NAME</t>
   </si>
 </sst>
 </file>
@@ -152,7 +152,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D219828-922A-4BFD-A68E-491A2CA7676C}" name="Table1" displayName="Table1" ref="A1:F12" totalsRowShown="0">
   <autoFilter ref="A1:F12" xr:uid="{4D219828-922A-4BFD-A68E-491A2CA7676C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C5AE54DA-6D38-491B-8D49-6B5389CE9290}" name="Player Name"/>
+    <tableColumn id="1" xr3:uid="{C5AE54DA-6D38-491B-8D49-6B5389CE9290}" name="PLAYER NAME"/>
     <tableColumn id="2" xr3:uid="{5E7F68F8-C456-44EF-AB19-0A09DBB75E9C}" name="Runs"/>
     <tableColumn id="3" xr3:uid="{751B7D76-C2CD-434C-AD54-939FB1C14D71}" name="Balls Faced"/>
     <tableColumn id="4" xr3:uid="{E4A062DE-B849-4D2C-A9CE-967B74B1A563}" name="Method Of Dismissal"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,27 +477,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -546,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -566,10 +566,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>11</v>
